--- a/FEDEX/backend/DataSet.xlsx
+++ b/FEDEX/backend/DataSet.xlsx
@@ -678,7 +678,7 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Ready for pickup</t>
         </is>
       </c>
       <c r="N4" t="inlineStr"/>
@@ -852,7 +852,7 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>delivered</t>
+          <t>Ready for pickup</t>
         </is>
       </c>
       <c r="N7" t="inlineStr"/>
@@ -910,7 +910,7 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>delivered</t>
+          <t>Ready for pickup</t>
         </is>
       </c>
       <c r="N8" t="inlineStr"/>
@@ -968,8 +968,7 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t xml:space="preserve">BURLINGTON, WA
-</t>
+          <t>Ready for pickup</t>
         </is>
       </c>
       <c r="N9" t="inlineStr"/>
@@ -1027,7 +1026,7 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>delivered</t>
+          <t>Ready for pickup</t>
         </is>
       </c>
       <c r="N10" t="inlineStr"/>
@@ -1143,7 +1142,7 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>delivered</t>
+          <t>Delivered</t>
         </is>
       </c>
       <c r="N12" t="inlineStr"/>
@@ -1201,7 +1200,7 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>delivered</t>
+          <t>Ready for pickup</t>
         </is>
       </c>
       <c r="N13" t="inlineStr"/>
@@ -1259,7 +1258,7 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>delivered</t>
+          <t>Delivered</t>
         </is>
       </c>
       <c r="N14" t="inlineStr"/>
@@ -1317,7 +1316,7 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>delivered</t>
+          <t>Ready for pickup</t>
         </is>
       </c>
       <c r="N15" t="inlineStr"/>
@@ -1375,7 +1374,7 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>delivered</t>
+          <t>Delivered</t>
         </is>
       </c>
       <c r="N16" t="inlineStr"/>
@@ -1433,7 +1432,7 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>delivered</t>
+          <t>Delivered</t>
         </is>
       </c>
       <c r="N17" t="inlineStr"/>
@@ -1491,7 +1490,7 @@
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>delivered</t>
+          <t>Ready for pickup</t>
         </is>
       </c>
       <c r="N18" t="inlineStr"/>
@@ -1549,7 +1548,7 @@
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>delivered</t>
+          <t>Delivered</t>
         </is>
       </c>
       <c r="N19" t="inlineStr"/>
@@ -1607,7 +1606,7 @@
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>delivered</t>
+          <t>Delivered</t>
         </is>
       </c>
       <c r="N20" t="inlineStr"/>
@@ -1665,7 +1664,7 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>delivered</t>
+          <t>Delivered</t>
         </is>
       </c>
       <c r="N21" t="inlineStr"/>
@@ -1723,7 +1722,7 @@
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>delivered</t>
+          <t>Ready for pickup</t>
         </is>
       </c>
       <c r="N22" t="inlineStr"/>
@@ -1781,7 +1780,7 @@
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>delivered</t>
+          <t>Delivered</t>
         </is>
       </c>
       <c r="N23" t="inlineStr"/>
@@ -1839,7 +1838,7 @@
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>delivered</t>
+          <t>Delivered</t>
         </is>
       </c>
       <c r="N24" t="inlineStr"/>
@@ -1897,7 +1896,7 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>delivered</t>
+          <t>Ready for pickup</t>
         </is>
       </c>
       <c r="N25" t="inlineStr"/>
@@ -1955,7 +1954,7 @@
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>delivered</t>
+          <t>Ready for pickup</t>
         </is>
       </c>
       <c r="N26" t="inlineStr"/>
@@ -2013,7 +2012,7 @@
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>delivered</t>
+          <t>Ready for pickup</t>
         </is>
       </c>
       <c r="N27" t="inlineStr"/>
@@ -2071,7 +2070,7 @@
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>delivered</t>
+          <t>Delivered</t>
         </is>
       </c>
       <c r="N28" t="inlineStr"/>
@@ -2129,7 +2128,7 @@
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>delivered</t>
+          <t>Delivered</t>
         </is>
       </c>
       <c r="N29" t="inlineStr"/>
@@ -2187,7 +2186,7 @@
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>delivered</t>
+          <t>Delivered</t>
         </is>
       </c>
       <c r="N30" t="inlineStr"/>
@@ -2245,7 +2244,7 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>delivered</t>
+          <t>Delivered</t>
         </is>
       </c>
       <c r="N31" t="inlineStr"/>
@@ -2303,7 +2302,7 @@
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>delivered</t>
+          <t>Delivered</t>
         </is>
       </c>
       <c r="N32" t="inlineStr"/>
@@ -2361,7 +2360,7 @@
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>delivered</t>
+          <t>Delivered</t>
         </is>
       </c>
       <c r="N33" t="inlineStr"/>
@@ -2419,7 +2418,7 @@
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>Customs Processing</t>
+          <t>Awaiting Customs Clearance</t>
         </is>
       </c>
       <c r="N34" t="inlineStr"/>
@@ -2477,7 +2476,7 @@
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>At parcel delivery centre.</t>
+          <t>At Delivery Centre</t>
         </is>
       </c>
       <c r="N35" t="inlineStr"/>
@@ -2535,7 +2534,7 @@
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>In transit.</t>
+          <t>In Transit</t>
         </is>
       </c>
       <c r="N36" t="inlineStr"/>
@@ -2593,7 +2592,7 @@
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>In transit.</t>
+          <t>In Transit</t>
         </is>
       </c>
       <c r="N37" t="inlineStr"/>
@@ -2651,7 +2650,7 @@
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>delivered</t>
+          <t>Delivered</t>
         </is>
       </c>
       <c r="N38" t="inlineStr"/>
@@ -2709,7 +2708,7 @@
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>delivered</t>
+          <t>Delivered</t>
         </is>
       </c>
       <c r="N39" t="inlineStr"/>
@@ -2767,7 +2766,7 @@
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>delivered</t>
+          <t>Ready for pickup</t>
         </is>
       </c>
       <c r="N40" t="inlineStr"/>
@@ -2825,7 +2824,7 @@
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>DHAKA BDDHAKA BD[clearance delay]</t>
+          <t>Ready for pickup</t>
         </is>
       </c>
       <c r="N41" t="inlineStr"/>
@@ -2883,7 +2882,7 @@
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>HYDERABAD IN</t>
+          <t>Ready for pickup</t>
         </is>
       </c>
       <c r="N42" t="inlineStr"/>
@@ -2941,7 +2940,7 @@
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>delivered</t>
+          <t>Ready for pickup</t>
         </is>
       </c>
       <c r="N43" t="inlineStr"/>
@@ -2999,7 +2998,7 @@
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>delivered</t>
+          <t>Ready for pickup</t>
         </is>
       </c>
       <c r="N44" t="inlineStr"/>
@@ -3057,8 +3056,7 @@
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t xml:space="preserve">delivered
-</t>
+          <t>Delivered</t>
         </is>
       </c>
       <c r="N45" t="inlineStr"/>
@@ -3116,7 +3114,7 @@
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>delivered</t>
+          <t>Delivered</t>
         </is>
       </c>
       <c r="N46" t="inlineStr"/>
@@ -3174,7 +3172,7 @@
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>delivered</t>
+          <t>Delivered</t>
         </is>
       </c>
       <c r="N47" t="inlineStr"/>
@@ -3232,7 +3230,7 @@
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>delivered</t>
+          <t>Ready for pickup</t>
         </is>
       </c>
       <c r="N48" t="inlineStr"/>
@@ -3290,7 +3288,7 @@
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>delivered</t>
+          <t>Delivered</t>
         </is>
       </c>
       <c r="N49" t="inlineStr"/>
@@ -3348,7 +3346,7 @@
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>delivered</t>
+          <t>Ready for pickup</t>
         </is>
       </c>
       <c r="N50" t="inlineStr"/>
@@ -3406,7 +3404,7 @@
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>delivered</t>
+          <t>Ready for pickup</t>
         </is>
       </c>
       <c r="N51" t="inlineStr"/>
@@ -3464,7 +3462,7 @@
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>delivered</t>
+          <t>Ready for pickup</t>
         </is>
       </c>
       <c r="N52" t="inlineStr"/>
@@ -3522,7 +3520,7 @@
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>delivered</t>
+          <t>Ready for pickup</t>
         </is>
       </c>
       <c r="N53" t="inlineStr"/>
@@ -3580,8 +3578,7 @@
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t xml:space="preserve">delivered
-</t>
+          <t>Ready for pickup</t>
         </is>
       </c>
       <c r="N54" t="inlineStr"/>
@@ -3639,7 +3636,7 @@
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>HARARE ZW[clearance delay]</t>
+          <t>Ready for pickup</t>
         </is>
       </c>
       <c r="N55" t="inlineStr"/>
@@ -3697,7 +3694,7 @@
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>delivered</t>
+          <t>Delivered</t>
         </is>
       </c>
       <c r="N56" t="inlineStr"/>
@@ -3755,7 +3752,7 @@
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>delivered</t>
+          <t>Ready for pickup</t>
         </is>
       </c>
       <c r="N57" t="inlineStr"/>
@@ -3813,7 +3810,7 @@
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>delivered</t>
+          <t>Ready for pickup</t>
         </is>
       </c>
       <c r="N58" t="inlineStr"/>
@@ -3871,7 +3868,7 @@
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t xml:space="preserve">In transit.	</t>
+          <t>In Transit</t>
         </is>
       </c>
       <c r="N59" t="inlineStr"/>
@@ -3929,7 +3926,7 @@
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>delivered</t>
+          <t>Delivered</t>
         </is>
       </c>
       <c r="N60" t="inlineStr"/>
@@ -3987,7 +3984,7 @@
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>delivered</t>
+          <t>Ready for pickup</t>
         </is>
       </c>
       <c r="N61" t="inlineStr"/>
@@ -4045,8 +4042,7 @@
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t xml:space="preserve">delivered
-</t>
+          <t>Returning package to shipper</t>
         </is>
       </c>
       <c r="N62" t="inlineStr"/>
@@ -4104,7 +4100,7 @@
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>delivered</t>
+          <t>Ready for pickup</t>
         </is>
       </c>
       <c r="N63" t="inlineStr"/>
@@ -4162,7 +4158,7 @@
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>MEMPHIS, TN[clearance delay]</t>
+          <t>Ready for pickup</t>
         </is>
       </c>
       <c r="N64" t="inlineStr"/>
@@ -4278,8 +4274,7 @@
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t xml:space="preserve">delivered
-</t>
+          <t>Ready for pickup</t>
         </is>
       </c>
       <c r="N66" t="inlineStr"/>
@@ -4337,7 +4332,7 @@
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>delivered</t>
+          <t>Ready for pickup</t>
         </is>
       </c>
       <c r="N67" t="inlineStr"/>
@@ -4395,7 +4390,7 @@
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>delivered</t>
+          <t>Ready for pickup</t>
         </is>
       </c>
       <c r="N68" t="inlineStr"/>
@@ -4453,7 +4448,7 @@
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>delivered</t>
+          <t>Delivered</t>
         </is>
       </c>
       <c r="N69" t="inlineStr"/>
@@ -4511,7 +4506,7 @@
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>delivered</t>
+          <t>Delivered</t>
         </is>
       </c>
       <c r="N70" t="inlineStr"/>
@@ -4569,7 +4564,7 @@
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>delivered</t>
+          <t>Delivered</t>
         </is>
       </c>
       <c r="N71" t="inlineStr"/>
@@ -4627,7 +4622,7 @@
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>delivered</t>
+          <t>Delivered</t>
         </is>
       </c>
       <c r="N72" t="inlineStr"/>
@@ -4685,7 +4680,7 @@
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>delivered</t>
+          <t>Delivered</t>
         </is>
       </c>
       <c r="N73" t="inlineStr"/>
@@ -4743,7 +4738,7 @@
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>delivered</t>
+          <t>Ready for pickup</t>
         </is>
       </c>
       <c r="N74" t="inlineStr"/>
@@ -4801,7 +4796,7 @@
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>delivered</t>
+          <t>Delivered</t>
         </is>
       </c>
       <c r="N75" t="inlineStr"/>
@@ -4859,7 +4854,7 @@
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>delivered</t>
+          <t>Delivered</t>
         </is>
       </c>
       <c r="N76" t="inlineStr"/>
@@ -4917,7 +4912,7 @@
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>delivered</t>
+          <t>Delivered</t>
         </is>
       </c>
       <c r="N77" t="inlineStr"/>
@@ -5033,7 +5028,7 @@
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>delivered</t>
+          <t>Ready for pickup</t>
         </is>
       </c>
       <c r="N79" t="inlineStr"/>
@@ -5091,7 +5086,7 @@
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>delivered</t>
+          <t>Ready for pickup</t>
         </is>
       </c>
       <c r="N80" t="inlineStr"/>
@@ -5151,7 +5146,7 @@
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>delivered</t>
+          <t>Ready for pickup</t>
         </is>
       </c>
       <c r="N81" t="inlineStr"/>
@@ -5209,7 +5204,7 @@
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>delivered</t>
+          <t>Ready for pickup</t>
         </is>
       </c>
       <c r="N82" t="inlineStr"/>
@@ -5267,7 +5262,7 @@
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>delivered</t>
+          <t>Ready for pickup</t>
         </is>
       </c>
       <c r="N83" t="inlineStr"/>
@@ -5325,7 +5320,7 @@
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>delivered</t>
+          <t>Delivered</t>
         </is>
       </c>
       <c r="N84" t="inlineStr"/>
@@ -5383,7 +5378,7 @@
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>delivered</t>
+          <t>Ready for pickup</t>
         </is>
       </c>
       <c r="N85" t="inlineStr"/>
@@ -5441,7 +5436,7 @@
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>delivered</t>
+          <t>Delivered</t>
         </is>
       </c>
       <c r="N86" t="inlineStr"/>
@@ -5499,7 +5494,7 @@
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>delivered</t>
+          <t>Delivered</t>
         </is>
       </c>
       <c r="N87" t="inlineStr"/>
@@ -5559,8 +5554,7 @@
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t xml:space="preserve">SHANGHAI CN[CLEARANCE DELAY]
-</t>
+          <t>Ready for pickup</t>
         </is>
       </c>
       <c r="N88" t="inlineStr"/>
@@ -5620,7 +5614,7 @@
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>delivered</t>
+          <t>Ready for pickup</t>
         </is>
       </c>
       <c r="N89" t="inlineStr"/>
@@ -5678,7 +5672,7 @@
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t xml:space="preserve">In transit.	</t>
+          <t>In Transit</t>
         </is>
       </c>
       <c r="N90" t="inlineStr"/>
@@ -5736,7 +5730,7 @@
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>delivered</t>
+          <t>Delivered</t>
         </is>
       </c>
       <c r="N91" t="inlineStr"/>
@@ -5852,7 +5846,7 @@
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>delivered</t>
+          <t>Ready for pickup</t>
         </is>
       </c>
       <c r="N93" t="inlineStr"/>
@@ -5910,7 +5904,7 @@
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>VISAKHAPATNAM, AP IN</t>
+          <t>Ready for pickup</t>
         </is>
       </c>
       <c r="N94" t="inlineStr"/>
@@ -5968,7 +5962,7 @@
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>delivered</t>
+          <t>Ready for pickup</t>
         </is>
       </c>
       <c r="N95" t="inlineStr"/>
@@ -6026,7 +6020,7 @@
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>delivered</t>
+          <t>Ready for pickup</t>
         </is>
       </c>
       <c r="N96" t="inlineStr"/>
@@ -6084,7 +6078,7 @@
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>delivered</t>
+          <t>Ready for pickup</t>
         </is>
       </c>
       <c r="N97" t="inlineStr"/>
@@ -6142,7 +6136,7 @@
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>delivered</t>
+          <t>Delivered</t>
         </is>
       </c>
       <c r="N98" t="inlineStr"/>
@@ -6262,7 +6256,7 @@
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>delivered</t>
+          <t>Delivered</t>
         </is>
       </c>
       <c r="N100" t="inlineStr"/>
@@ -6382,7 +6376,7 @@
       </c>
       <c r="M102" t="inlineStr">
         <is>
-          <t>delivered</t>
+          <t>Delivered</t>
         </is>
       </c>
       <c r="N102" t="inlineStr">
@@ -6448,7 +6442,7 @@
       </c>
       <c r="M103" t="inlineStr">
         <is>
-          <t>delivered</t>
+          <t>Ready for pickup</t>
         </is>
       </c>
       <c r="N103" t="inlineStr"/>
@@ -6508,7 +6502,7 @@
       </c>
       <c r="M104" t="inlineStr">
         <is>
-          <t>delivered</t>
+          <t>Delivered</t>
         </is>
       </c>
       <c r="N104" t="inlineStr"/>
@@ -6568,7 +6562,7 @@
       </c>
       <c r="M105" t="inlineStr">
         <is>
-          <t>delivered</t>
+          <t>Ready for pickup</t>
         </is>
       </c>
       <c r="N105" t="inlineStr"/>
@@ -6628,7 +6622,7 @@
       </c>
       <c r="M106" t="inlineStr">
         <is>
-          <t>delivered</t>
+          <t>Ready for pickup</t>
         </is>
       </c>
       <c r="N106" t="inlineStr"/>
@@ -6748,7 +6742,7 @@
       </c>
       <c r="M108" t="inlineStr">
         <is>
-          <t>delivered</t>
+          <t>Ready for pickup</t>
         </is>
       </c>
       <c r="N108" t="inlineStr"/>
@@ -6808,7 +6802,7 @@
       </c>
       <c r="M109" t="inlineStr">
         <is>
-          <t>delivered</t>
+          <t>Delivered</t>
         </is>
       </c>
       <c r="N109" t="inlineStr"/>
@@ -6868,7 +6862,7 @@
       </c>
       <c r="M110" t="inlineStr">
         <is>
-          <t>delivered</t>
+          <t>Delivered</t>
         </is>
       </c>
       <c r="N110" t="inlineStr"/>
@@ -6928,7 +6922,7 @@
       </c>
       <c r="M111" t="inlineStr">
         <is>
-          <t>delivered</t>
+          <t>Delivered</t>
         </is>
       </c>
       <c r="N111" t="inlineStr"/>
@@ -6988,7 +6982,7 @@
       </c>
       <c r="M112" t="inlineStr">
         <is>
-          <t>delivered</t>
+          <t>Delivered</t>
         </is>
       </c>
       <c r="N112" t="inlineStr"/>
@@ -7048,7 +7042,7 @@
       </c>
       <c r="M113" t="inlineStr">
         <is>
-          <t>delivered</t>
+          <t>Ready for pickup</t>
         </is>
       </c>
       <c r="N113" t="inlineStr"/>
@@ -7108,7 +7102,7 @@
       </c>
       <c r="M114" t="inlineStr">
         <is>
-          <t>delivered</t>
+          <t>Ready for pickup</t>
         </is>
       </c>
       <c r="N114" t="inlineStr"/>
@@ -7168,7 +7162,7 @@
       </c>
       <c r="M115" t="inlineStr">
         <is>
-          <t>delivered</t>
+          <t>Ready for pickup</t>
         </is>
       </c>
       <c r="N115" t="inlineStr"/>
@@ -7228,7 +7222,7 @@
       </c>
       <c r="M116" t="inlineStr">
         <is>
-          <t>delivered</t>
+          <t>Delivered</t>
         </is>
       </c>
       <c r="N116" t="inlineStr"/>
@@ -7290,8 +7284,7 @@
       </c>
       <c r="M117" t="inlineStr">
         <is>
-          <t xml:space="preserve">MEMPHIS, TN
-</t>
+          <t>Ready for pickup</t>
         </is>
       </c>
       <c r="N117" t="inlineStr"/>
@@ -7351,7 +7344,7 @@
       </c>
       <c r="M118" t="inlineStr">
         <is>
-          <t>delivered</t>
+          <t>Delivered</t>
         </is>
       </c>
       <c r="N118" t="inlineStr"/>
@@ -7411,7 +7404,7 @@
       </c>
       <c r="M119" t="inlineStr">
         <is>
-          <t>delivered</t>
+          <t>Delivered</t>
         </is>
       </c>
       <c r="N119" t="inlineStr"/>
@@ -7471,7 +7464,7 @@
       </c>
       <c r="M120" t="inlineStr">
         <is>
-          <t>delivered</t>
+          <t>Delivered</t>
         </is>
       </c>
       <c r="N120" t="inlineStr"/>
@@ -7531,7 +7524,7 @@
       </c>
       <c r="M121" t="inlineStr">
         <is>
-          <t>delivered</t>
+          <t>Delivered</t>
         </is>
       </c>
       <c r="N121" t="inlineStr"/>
@@ -7591,7 +7584,7 @@
       </c>
       <c r="M122" t="inlineStr">
         <is>
-          <t>delivered</t>
+          <t>Delivered</t>
         </is>
       </c>
       <c r="N122" t="inlineStr"/>
@@ -7651,7 +7644,7 @@
       </c>
       <c r="M123" t="inlineStr">
         <is>
-          <t>delivered</t>
+          <t>Delivered</t>
         </is>
       </c>
       <c r="N123" t="inlineStr"/>
@@ -7711,7 +7704,7 @@
       </c>
       <c r="M124" t="inlineStr">
         <is>
-          <t>delivered</t>
+          <t>Delivered</t>
         </is>
       </c>
       <c r="N124" t="inlineStr"/>
@@ -7771,7 +7764,7 @@
       </c>
       <c r="M125" t="inlineStr">
         <is>
-          <t>delivered</t>
+          <t>Delivered</t>
         </is>
       </c>
       <c r="N125" t="inlineStr"/>
@@ -7831,7 +7824,7 @@
       </c>
       <c r="M126" t="inlineStr">
         <is>
-          <t>delivered</t>
+          <t>Delivered</t>
         </is>
       </c>
       <c r="N126" t="inlineStr"/>
@@ -7891,7 +7884,7 @@
       </c>
       <c r="M127" t="inlineStr">
         <is>
-          <t>delivered</t>
+          <t>Delivered</t>
         </is>
       </c>
       <c r="N127" t="inlineStr"/>
@@ -7951,7 +7944,7 @@
       </c>
       <c r="M128" t="inlineStr">
         <is>
-          <t>delivered</t>
+          <t>Delivered</t>
         </is>
       </c>
       <c r="N128" t="inlineStr"/>
@@ -8011,7 +8004,7 @@
       </c>
       <c r="M129" t="inlineStr">
         <is>
-          <t>delivered</t>
+          <t>Delivered</t>
         </is>
       </c>
       <c r="N129" t="inlineStr"/>
@@ -8071,7 +8064,7 @@
       </c>
       <c r="M130" t="inlineStr">
         <is>
-          <t>delivered</t>
+          <t>Ready for pickup</t>
         </is>
       </c>
       <c r="N130" t="inlineStr"/>
@@ -8131,7 +8124,7 @@
       </c>
       <c r="M131" t="inlineStr">
         <is>
-          <t>delivered</t>
+          <t>Ready for pickup</t>
         </is>
       </c>
       <c r="N131" t="inlineStr"/>
@@ -8191,7 +8184,7 @@
       </c>
       <c r="M132" t="inlineStr">
         <is>
-          <t>delivered</t>
+          <t>Delivered</t>
         </is>
       </c>
       <c r="N132" t="inlineStr"/>
@@ -8251,7 +8244,7 @@
       </c>
       <c r="M133" t="inlineStr">
         <is>
-          <t>delivered</t>
+          <t>Ready for pickup</t>
         </is>
       </c>
       <c r="N133" t="inlineStr"/>
@@ -8371,7 +8364,7 @@
       </c>
       <c r="M135" t="inlineStr">
         <is>
-          <t>delivered</t>
+          <t>Ready for pickup</t>
         </is>
       </c>
       <c r="N135" t="inlineStr"/>
@@ -8431,7 +8424,7 @@
       </c>
       <c r="M136" t="inlineStr">
         <is>
-          <t>delivered</t>
+          <t>Delivered</t>
         </is>
       </c>
       <c r="N136" t="inlineStr"/>
@@ -8491,7 +8484,7 @@
       </c>
       <c r="M137" t="inlineStr">
         <is>
-          <t>delivered</t>
+          <t>Delivered</t>
         </is>
       </c>
       <c r="N137" t="inlineStr"/>
@@ -8551,7 +8544,7 @@
       </c>
       <c r="M138" t="inlineStr">
         <is>
-          <t>delivered</t>
+          <t>Ready for pickup</t>
         </is>
       </c>
       <c r="N138" t="inlineStr"/>
@@ -8611,7 +8604,7 @@
       </c>
       <c r="M139" t="inlineStr">
         <is>
-          <t>delivered</t>
+          <t>Delivered</t>
         </is>
       </c>
       <c r="N139" t="inlineStr"/>
@@ -8671,7 +8664,7 @@
       </c>
       <c r="M140" t="inlineStr">
         <is>
-          <t>delivered</t>
+          <t>Delivered</t>
         </is>
       </c>
       <c r="N140" t="inlineStr"/>
@@ -8731,7 +8724,7 @@
       </c>
       <c r="M141" t="inlineStr">
         <is>
-          <t>delivered</t>
+          <t>Delivered</t>
         </is>
       </c>
       <c r="N141" t="inlineStr"/>
@@ -8791,7 +8784,7 @@
       </c>
       <c r="M142" t="inlineStr">
         <is>
-          <t>delivered</t>
+          <t>Delivered</t>
         </is>
       </c>
       <c r="N142" t="inlineStr"/>
@@ -8851,7 +8844,7 @@
       </c>
       <c r="M143" t="inlineStr">
         <is>
-          <t>delivered</t>
+          <t>Ready for pickup</t>
         </is>
       </c>
       <c r="N143" t="inlineStr"/>
@@ -8911,7 +8904,7 @@
       </c>
       <c r="M144" t="inlineStr">
         <is>
-          <t>delivered</t>
+          <t>Delivered</t>
         </is>
       </c>
       <c r="N144" t="inlineStr"/>
@@ -8971,7 +8964,7 @@
       </c>
       <c r="M145" t="inlineStr">
         <is>
-          <t>delivered</t>
+          <t>Delivered</t>
         </is>
       </c>
       <c r="N145" t="inlineStr"/>
@@ -9031,7 +9024,7 @@
       </c>
       <c r="M146" t="inlineStr">
         <is>
-          <t>delivered</t>
+          <t>Ready for pickup</t>
         </is>
       </c>
       <c r="N146" t="inlineStr"/>
@@ -9091,7 +9084,7 @@
       </c>
       <c r="M147" t="inlineStr">
         <is>
-          <t>delivered</t>
+          <t>Ready for pickup</t>
         </is>
       </c>
       <c r="N147" t="inlineStr"/>
@@ -9151,7 +9144,7 @@
       </c>
       <c r="M148" t="inlineStr">
         <is>
-          <t>ROISSY CHARLES DE GAULLE</t>
+          <t>Ready for pickup</t>
         </is>
       </c>
       <c r="N148" t="inlineStr"/>
@@ -9211,8 +9204,7 @@
       </c>
       <c r="M149" t="inlineStr">
         <is>
-          <t xml:space="preserve">INDIANAPOLIS, IN
-</t>
+          <t>Ready for pickup</t>
         </is>
       </c>
       <c r="N149" t="inlineStr"/>
@@ -9272,8 +9264,7 @@
       </c>
       <c r="M150" t="inlineStr">
         <is>
-          <t xml:space="preserve">INDIANAPOLIS, IN
-</t>
+          <t>Ready for pickup</t>
         </is>
       </c>
       <c r="N150" t="inlineStr"/>
@@ -9333,8 +9324,7 @@
       </c>
       <c r="M151" t="inlineStr">
         <is>
-          <t xml:space="preserve">INDIANAPOLIS, IN
-</t>
+          <t>Ready for pickup</t>
         </is>
       </c>
       <c r="N151" t="inlineStr"/>
@@ -9394,7 +9384,7 @@
       </c>
       <c r="M152" t="inlineStr">
         <is>
-          <t>HYDERABAD, TS IN</t>
+          <t>Ready for pickup</t>
         </is>
       </c>
       <c r="N152" t="inlineStr"/>
@@ -9454,7 +9444,7 @@
       </c>
       <c r="M153" t="inlineStr">
         <is>
-          <t>delivered</t>
+          <t>Ready for pickup</t>
         </is>
       </c>
       <c r="N153" t="inlineStr"/>
@@ -9514,7 +9504,7 @@
       </c>
       <c r="M154" t="inlineStr">
         <is>
-          <t>delivered</t>
+          <t>Ready for pickup</t>
         </is>
       </c>
       <c r="N154" t="inlineStr"/>
@@ -9574,7 +9564,7 @@
       </c>
       <c r="M155" t="inlineStr">
         <is>
-          <t>delivered</t>
+          <t>Delivered</t>
         </is>
       </c>
       <c r="N155" t="inlineStr"/>
@@ -9634,7 +9624,7 @@
       </c>
       <c r="M156" t="inlineStr">
         <is>
-          <t>delivered</t>
+          <t>Ready for pickup</t>
         </is>
       </c>
       <c r="N156" t="inlineStr"/>
@@ -9694,7 +9684,7 @@
       </c>
       <c r="M157" t="inlineStr">
         <is>
-          <t>delivered</t>
+          <t>Delivered</t>
         </is>
       </c>
       <c r="N157" t="inlineStr"/>
@@ -9754,7 +9744,7 @@
       </c>
       <c r="M158" t="inlineStr">
         <is>
-          <t>delivered</t>
+          <t>Delivered</t>
         </is>
       </c>
       <c r="N158" t="inlineStr"/>
@@ -9814,7 +9804,7 @@
       </c>
       <c r="M159" t="inlineStr">
         <is>
-          <t>delivered</t>
+          <t>Delivered</t>
         </is>
       </c>
       <c r="N159" t="inlineStr"/>
@@ -9874,8 +9864,7 @@
       </c>
       <c r="M160" t="inlineStr">
         <is>
-          <t xml:space="preserve">DAR ES SALAAM TZ[clearance delay]
-</t>
+          <t>Ready for pickup</t>
         </is>
       </c>
       <c r="N160" t="inlineStr"/>
@@ -9935,8 +9924,7 @@
       </c>
       <c r="M161" t="inlineStr">
         <is>
-          <t xml:space="preserve">NEWARK, NJ
-</t>
+          <t>Ready for pickup</t>
         </is>
       </c>
       <c r="N161" t="inlineStr"/>
@@ -9996,8 +9984,7 @@
       </c>
       <c r="M162" t="inlineStr">
         <is>
-          <t xml:space="preserve">BEIJING CN
-</t>
+          <t>Ready for pickup</t>
         </is>
       </c>
       <c r="N162" t="inlineStr"/>
@@ -10057,8 +10044,7 @@
       </c>
       <c r="M163" t="inlineStr">
         <is>
-          <t xml:space="preserve">SHANGHAI CN[clearance delay]
-</t>
+          <t>Ready for pickup</t>
         </is>
       </c>
       <c r="N163" t="inlineStr"/>
@@ -10118,7 +10104,7 @@
       </c>
       <c r="M164" t="inlineStr">
         <is>
-          <t>delivered</t>
+          <t>Ready for pickup</t>
         </is>
       </c>
       <c r="N164" t="inlineStr"/>
@@ -10178,8 +10164,7 @@
       </c>
       <c r="M165" t="inlineStr">
         <is>
-          <t xml:space="preserve">In Transit to Destination
-</t>
+          <t>Delivered</t>
         </is>
       </c>
       <c r="N165" t="inlineStr"/>
@@ -10239,7 +10224,7 @@
       </c>
       <c r="M166" t="inlineStr">
         <is>
-          <t>delivered</t>
+          <t>Delivered</t>
         </is>
       </c>
       <c r="N166" t="inlineStr"/>
@@ -10299,8 +10284,7 @@
       </c>
       <c r="M167" t="inlineStr">
         <is>
-          <t xml:space="preserve">CAMPINAS BR
-</t>
+          <t>Ready for pickup</t>
         </is>
       </c>
       <c r="N167" t="inlineStr"/>
@@ -10360,7 +10344,7 @@
       </c>
       <c r="M168" t="inlineStr">
         <is>
-          <t>delivered</t>
+          <t>Ready for pickup</t>
         </is>
       </c>
       <c r="N168" t="inlineStr"/>
@@ -10420,7 +10404,7 @@
       </c>
       <c r="M169" t="inlineStr">
         <is>
-          <t>delivered</t>
+          <t>Ready for pickup</t>
         </is>
       </c>
       <c r="N169" t="inlineStr"/>
@@ -10480,8 +10464,7 @@
       </c>
       <c r="M170" t="inlineStr">
         <is>
-          <t xml:space="preserve">EXPECTED ARRIVAL ON 1.12.2025
-</t>
+          <t>Delivered</t>
         </is>
       </c>
       <c r="N170" t="inlineStr"/>
@@ -10541,7 +10524,7 @@
       </c>
       <c r="M171" t="inlineStr">
         <is>
-          <t>delivered</t>
+          <t>Delivered</t>
         </is>
       </c>
       <c r="N171" t="inlineStr"/>
@@ -10601,7 +10584,7 @@
       </c>
       <c r="M172" t="inlineStr">
         <is>
-          <t>delivered</t>
+          <t>Delivered</t>
         </is>
       </c>
       <c r="N172" t="inlineStr"/>
@@ -10661,7 +10644,7 @@
       </c>
       <c r="M173" t="inlineStr">
         <is>
-          <t>delivered</t>
+          <t>Delivered</t>
         </is>
       </c>
       <c r="N173" t="inlineStr"/>
@@ -10721,7 +10704,7 @@
       </c>
       <c r="M174" t="inlineStr">
         <is>
-          <t>delivered</t>
+          <t>Delivered</t>
         </is>
       </c>
       <c r="N174" t="inlineStr"/>
@@ -10781,7 +10764,7 @@
       </c>
       <c r="M175" t="inlineStr">
         <is>
-          <t>delivered</t>
+          <t>Ready for pickup</t>
         </is>
       </c>
       <c r="N175" t="inlineStr"/>
@@ -10841,7 +10824,7 @@
       </c>
       <c r="M176" t="inlineStr">
         <is>
-          <t>delivered</t>
+          <t>Ready for pickup</t>
         </is>
       </c>
       <c r="N176" t="inlineStr"/>
@@ -10901,7 +10884,7 @@
       </c>
       <c r="M177" t="inlineStr">
         <is>
-          <t>delivered</t>
+          <t>Ready for pickup</t>
         </is>
       </c>
       <c r="N177" t="inlineStr"/>
@@ -10961,8 +10944,7 @@
       </c>
       <c r="M178" t="inlineStr">
         <is>
-          <t xml:space="preserve">MEMPHIS, TN
-</t>
+          <t>Ready for pickup</t>
         </is>
       </c>
       <c r="N178" t="inlineStr"/>
@@ -11022,7 +11004,7 @@
       </c>
       <c r="M179" t="inlineStr">
         <is>
-          <t>HYDERABAD, TS IN</t>
+          <t>Ready for pickup</t>
         </is>
       </c>
       <c r="N179" t="inlineStr"/>
@@ -11082,8 +11064,7 @@
       </c>
       <c r="M180" t="inlineStr">
         <is>
-          <t xml:space="preserve">MEMPHIS, TN
-</t>
+          <t>Ready for pickup</t>
         </is>
       </c>
       <c r="N180" t="inlineStr"/>
@@ -11143,8 +11124,7 @@
       </c>
       <c r="M181" t="inlineStr">
         <is>
-          <t xml:space="preserve">Customs cleared connected onwards
-</t>
+          <t>Delivered</t>
         </is>
       </c>
       <c r="N181" t="inlineStr"/>
@@ -11204,8 +11184,7 @@
       </c>
       <c r="M182" t="inlineStr">
         <is>
-          <t xml:space="preserve">COLOMBO LK
-</t>
+          <t>Ready for pickup</t>
         </is>
       </c>
       <c r="N182" t="inlineStr"/>
@@ -11265,7 +11244,7 @@
       </c>
       <c r="M183" t="inlineStr">
         <is>
-          <t>delivered</t>
+          <t>Delivered</t>
         </is>
       </c>
       <c r="N183" t="inlineStr"/>
@@ -11325,7 +11304,7 @@
       </c>
       <c r="M184" t="inlineStr">
         <is>
-          <t>delivered</t>
+          <t>Delivered</t>
         </is>
       </c>
       <c r="N184" t="inlineStr"/>
@@ -11385,7 +11364,7 @@
       </c>
       <c r="M185" t="inlineStr">
         <is>
-          <t xml:space="preserve">Shipment exception	</t>
+          <t>Delivered</t>
         </is>
       </c>
       <c r="N185" t="inlineStr"/>
@@ -11445,7 +11424,7 @@
       </c>
       <c r="M186" t="inlineStr">
         <is>
-          <t>delivered</t>
+          <t>Delivered</t>
         </is>
       </c>
       <c r="N186" t="inlineStr"/>
@@ -11505,8 +11484,7 @@
       </c>
       <c r="M187" t="inlineStr">
         <is>
-          <t xml:space="preserve">Awaiting custom Clearence
-</t>
+          <t>Delivered</t>
         </is>
       </c>
       <c r="N187" t="inlineStr"/>
@@ -11566,7 +11544,7 @@
       </c>
       <c r="M188" t="inlineStr">
         <is>
-          <t xml:space="preserve">Shipment exception	</t>
+          <t>Delivered</t>
         </is>
       </c>
       <c r="N188" t="inlineStr"/>
@@ -11626,7 +11604,7 @@
       </c>
       <c r="M189" t="inlineStr">
         <is>
-          <t>delivered</t>
+          <t>Ready for pickup</t>
         </is>
       </c>
       <c r="N189" t="inlineStr"/>
@@ -11686,7 +11664,7 @@
       </c>
       <c r="M190" t="inlineStr">
         <is>
-          <t>delivered</t>
+          <t>Ready for pickup</t>
         </is>
       </c>
       <c r="N190" t="inlineStr"/>
@@ -11746,7 +11724,7 @@
       </c>
       <c r="M191" t="inlineStr">
         <is>
-          <t xml:space="preserve">At local FedEx facility	</t>
+          <t>Delivered</t>
         </is>
       </c>
       <c r="N191" t="inlineStr"/>
@@ -11806,7 +11784,7 @@
       </c>
       <c r="M192" t="inlineStr">
         <is>
-          <t>HYDERABAD, TS IN</t>
+          <t>Ready for pickup</t>
         </is>
       </c>
       <c r="N192" t="inlineStr"/>
@@ -11866,7 +11844,7 @@
       </c>
       <c r="M193" t="inlineStr">
         <is>
-          <t xml:space="preserve">At destination sort facility	</t>
+          <t>Delivered</t>
         </is>
       </c>
       <c r="N193" t="inlineStr"/>
@@ -11926,8 +11904,7 @@
       </c>
       <c r="M194" t="inlineStr">
         <is>
-          <t xml:space="preserve">Your parcel arrived at our delivery depot
-</t>
+          <t>Delivered</t>
         </is>
       </c>
       <c r="N194" t="inlineStr"/>
@@ -11987,7 +11964,7 @@
       </c>
       <c r="M195" t="inlineStr">
         <is>
-          <t xml:space="preserve">On FedEx vehicle for delivery	</t>
+          <t>Delivered</t>
         </is>
       </c>
       <c r="N195" t="inlineStr"/>
@@ -12047,7 +12024,7 @@
       </c>
       <c r="M196" t="inlineStr">
         <is>
-          <t>ROISSY CHARLES DE GAULLE</t>
+          <t>Ready for pickup</t>
         </is>
       </c>
       <c r="N196" t="inlineStr"/>
@@ -12107,7 +12084,7 @@
       </c>
       <c r="M197" t="inlineStr">
         <is>
-          <t>delivered</t>
+          <t>Ready for pickup</t>
         </is>
       </c>
       <c r="N197" t="inlineStr"/>
@@ -12167,7 +12144,7 @@
       </c>
       <c r="M198" t="inlineStr">
         <is>
-          <t>delivered</t>
+          <t>Ready for pickup</t>
         </is>
       </c>
       <c r="N198" t="inlineStr"/>
@@ -12227,7 +12204,7 @@
       </c>
       <c r="M199" t="inlineStr">
         <is>
-          <t xml:space="preserve">Clearance delay - Import	</t>
+          <t>Delivered</t>
         </is>
       </c>
       <c r="N199" t="inlineStr"/>
@@ -12287,7 +12264,7 @@
       </c>
       <c r="M200" t="inlineStr">
         <is>
-          <t xml:space="preserve">On the way	</t>
+          <t>Delivered</t>
         </is>
       </c>
       <c r="N200" t="inlineStr"/>
@@ -12347,7 +12324,7 @@
       </c>
       <c r="M201" t="inlineStr">
         <is>
-          <t xml:space="preserve">On the way	</t>
+          <t>Delivered</t>
         </is>
       </c>
       <c r="N201" t="inlineStr"/>
@@ -12407,7 +12384,7 @@
       </c>
       <c r="M202" t="inlineStr">
         <is>
-          <t>On the way</t>
+          <t>Delivered</t>
         </is>
       </c>
       <c r="N202" t="inlineStr"/>
@@ -12467,7 +12444,7 @@
       </c>
       <c r="M203" t="inlineStr">
         <is>
-          <t>delivered</t>
+          <t>Delivered</t>
         </is>
       </c>
       <c r="N203" t="inlineStr"/>
@@ -12527,8 +12504,7 @@
       </c>
       <c r="M204" t="inlineStr">
         <is>
-          <t xml:space="preserve">MATRAVILLE AU
-</t>
+          <t>Ready for pickup</t>
         </is>
       </c>
       <c r="N204" t="inlineStr"/>
@@ -12588,8 +12564,7 @@
       </c>
       <c r="M205" t="inlineStr">
         <is>
-          <t xml:space="preserve">INCHEON-SI KR
-</t>
+          <t>Ready for pickup</t>
         </is>
       </c>
       <c r="N205" t="inlineStr"/>
@@ -12649,8 +12624,7 @@
       </c>
       <c r="M206" t="inlineStr">
         <is>
-          <t xml:space="preserve">BANGALORE IN
-</t>
+          <t>Ready for pickup</t>
         </is>
       </c>
       <c r="N206" t="inlineStr"/>
@@ -12710,7 +12684,7 @@
       </c>
       <c r="M207" t="inlineStr">
         <is>
-          <t xml:space="preserve">On the way	</t>
+          <t>Delivered</t>
         </is>
       </c>
       <c r="N207" t="inlineStr"/>
@@ -12770,7 +12744,7 @@
       </c>
       <c r="M208" t="inlineStr">
         <is>
-          <t xml:space="preserve">On the way	</t>
+          <t>Delivered</t>
         </is>
       </c>
       <c r="N208" t="inlineStr"/>
@@ -12830,7 +12804,7 @@
       </c>
       <c r="M209" t="inlineStr">
         <is>
-          <t>HYDERABAD, TS IN</t>
+          <t>Ready for pickup</t>
         </is>
       </c>
       <c r="N209" t="inlineStr"/>
@@ -12890,7 +12864,7 @@
       </c>
       <c r="M210" t="inlineStr">
         <is>
-          <t>HYDERABAD, TS IN</t>
+          <t>Ready for pickup</t>
         </is>
       </c>
       <c r="N210" t="inlineStr"/>
@@ -12950,8 +12924,7 @@
       </c>
       <c r="M211" t="inlineStr">
         <is>
-          <t xml:space="preserve">BASEL CH
-</t>
+          <t>Ready for pickup</t>
         </is>
       </c>
       <c r="N211" t="inlineStr"/>
@@ -13011,7 +12984,7 @@
       </c>
       <c r="M212" t="inlineStr">
         <is>
-          <t>K.V.RANGAREDDY, TS IN</t>
+          <t>Ready for pickup</t>
         </is>
       </c>
       <c r="N212" t="inlineStr"/>
@@ -13071,7 +13044,7 @@
       </c>
       <c r="M213" t="inlineStr">
         <is>
-          <t>On the way</t>
+          <t>Delivered</t>
         </is>
       </c>
       <c r="N213" t="inlineStr"/>
@@ -13131,7 +13104,7 @@
       </c>
       <c r="M214" t="inlineStr">
         <is>
-          <t>On the way</t>
+          <t>Delivered</t>
         </is>
       </c>
       <c r="N214" t="inlineStr"/>
@@ -13191,7 +13164,7 @@
       </c>
       <c r="M215" t="inlineStr">
         <is>
-          <t>On the way</t>
+          <t>Delivered</t>
         </is>
       </c>
       <c r="N215" t="inlineStr"/>
@@ -13251,7 +13224,7 @@
       </c>
       <c r="M216" t="inlineStr">
         <is>
-          <t>On the way</t>
+          <t>Delivered</t>
         </is>
       </c>
       <c r="N216" t="inlineStr"/>
@@ -13311,7 +13284,7 @@
       </c>
       <c r="M217" t="inlineStr">
         <is>
-          <t>On the way</t>
+          <t>Delivered</t>
         </is>
       </c>
       <c r="N217" t="inlineStr"/>
@@ -13371,7 +13344,7 @@
       </c>
       <c r="M218" t="inlineStr">
         <is>
-          <t>On the way</t>
+          <t>Delivered</t>
         </is>
       </c>
       <c r="N218" t="inlineStr"/>
@@ -13431,7 +13404,7 @@
       </c>
       <c r="M219" t="inlineStr">
         <is>
-          <t>On the way</t>
+          <t>Delivered</t>
         </is>
       </c>
       <c r="N219" t="inlineStr"/>
@@ -13491,7 +13464,7 @@
       </c>
       <c r="M220" t="inlineStr">
         <is>
-          <t>On the way</t>
+          <t>Delivered</t>
         </is>
       </c>
       <c r="N220" t="inlineStr"/>
@@ -13551,7 +13524,7 @@
       </c>
       <c r="M221" t="inlineStr">
         <is>
-          <t>On the way</t>
+          <t>Delivered</t>
         </is>
       </c>
       <c r="N221" t="inlineStr"/>
@@ -13611,7 +13584,7 @@
       </c>
       <c r="M222" t="inlineStr">
         <is>
-          <t>On the way</t>
+          <t>Delivered</t>
         </is>
       </c>
       <c r="N222" t="inlineStr"/>
@@ -13671,7 +13644,7 @@
       </c>
       <c r="M223" t="inlineStr">
         <is>
-          <t>On the way</t>
+          <t>Delivered</t>
         </is>
       </c>
       <c r="N223" t="inlineStr"/>
@@ -13731,7 +13704,7 @@
       </c>
       <c r="M224" t="inlineStr">
         <is>
-          <t>On the way</t>
+          <t>Delivered</t>
         </is>
       </c>
       <c r="N224" t="inlineStr"/>
@@ -13791,7 +13764,7 @@
       </c>
       <c r="M225" t="inlineStr">
         <is>
-          <t>On the way</t>
+          <t>Delivered</t>
         </is>
       </c>
       <c r="N225" t="inlineStr"/>
@@ -13851,7 +13824,7 @@
       </c>
       <c r="M226" t="inlineStr">
         <is>
-          <t>On the way</t>
+          <t>Delivered</t>
         </is>
       </c>
       <c r="N226" t="inlineStr"/>
@@ -13911,7 +13884,7 @@
       </c>
       <c r="M227" t="inlineStr">
         <is>
-          <t>On the way</t>
+          <t>Delivered</t>
         </is>
       </c>
       <c r="N227" t="inlineStr"/>
@@ -13971,7 +13944,7 @@
       </c>
       <c r="M228" t="inlineStr">
         <is>
-          <t>On the way</t>
+          <t>Delivered</t>
         </is>
       </c>
       <c r="N228" t="inlineStr"/>
@@ -14031,7 +14004,7 @@
       </c>
       <c r="M229" t="inlineStr">
         <is>
-          <t>On the way</t>
+          <t>Delivered</t>
         </is>
       </c>
       <c r="N229" t="inlineStr"/>
@@ -14091,7 +14064,7 @@
       </c>
       <c r="M230" t="inlineStr">
         <is>
-          <t>On the way</t>
+          <t>Delivered</t>
         </is>
       </c>
       <c r="N230" t="inlineStr"/>
@@ -14151,7 +14124,7 @@
       </c>
       <c r="M231" t="inlineStr">
         <is>
-          <t>On the way</t>
+          <t>Delivered</t>
         </is>
       </c>
       <c r="N231" t="inlineStr"/>
@@ -14211,7 +14184,7 @@
       </c>
       <c r="M232" t="inlineStr">
         <is>
-          <t>On the way</t>
+          <t>Delivered</t>
         </is>
       </c>
       <c r="N232" t="inlineStr"/>
@@ -14271,7 +14244,7 @@
       </c>
       <c r="M233" t="inlineStr">
         <is>
-          <t>On the way</t>
+          <t>Delivered</t>
         </is>
       </c>
       <c r="N233" t="inlineStr"/>
@@ -14331,7 +14304,7 @@
       </c>
       <c r="M234" t="inlineStr">
         <is>
-          <t>On the way</t>
+          <t>Delivered</t>
         </is>
       </c>
       <c r="N234" t="inlineStr"/>
@@ -14391,7 +14364,7 @@
       </c>
       <c r="M235" t="inlineStr">
         <is>
-          <t>On the way</t>
+          <t>Delivered</t>
         </is>
       </c>
       <c r="N235" t="inlineStr"/>
@@ -14451,7 +14424,7 @@
       </c>
       <c r="M236" t="inlineStr">
         <is>
-          <t>SHIPMENT SENT TO DESTINATION</t>
+          <t>Delivered</t>
         </is>
       </c>
       <c r="N236" t="inlineStr"/>
@@ -14511,7 +14484,7 @@
       </c>
       <c r="M237" t="inlineStr">
         <is>
-          <t>BANGALORE IN</t>
+          <t>Ready for pickup</t>
         </is>
       </c>
       <c r="N237" t="inlineStr"/>
@@ -14569,7 +14542,11 @@
       <c r="L238" t="n">
         <v>886475107910</v>
       </c>
-      <c r="M238" t="inlineStr"/>
+      <c r="M238" t="inlineStr">
+        <is>
+          <t>Ready for pickup</t>
+        </is>
+      </c>
       <c r="N238" t="inlineStr"/>
     </row>
     <row r="239">
@@ -14627,7 +14604,7 @@
       </c>
       <c r="M239" t="inlineStr">
         <is>
-          <t>On the way</t>
+          <t>Delivered</t>
         </is>
       </c>
       <c r="N239" t="inlineStr"/>
@@ -14687,7 +14664,7 @@
       </c>
       <c r="M240" t="inlineStr">
         <is>
-          <t>On the way</t>
+          <t>Delivered</t>
         </is>
       </c>
       <c r="N240" t="inlineStr"/>
@@ -14747,8 +14724,7 @@
       </c>
       <c r="M241" t="inlineStr">
         <is>
-          <t xml:space="preserve">Shipment departed
-</t>
+          <t>Delivered</t>
         </is>
       </c>
       <c r="N241" t="inlineStr"/>
@@ -14808,7 +14784,7 @@
       </c>
       <c r="M242" t="inlineStr">
         <is>
-          <t>Shipment Manifested Day End Process</t>
+          <t>Delivered</t>
         </is>
       </c>
       <c r="N242" t="inlineStr"/>
@@ -14866,7 +14842,11 @@
       <c r="L243" t="n">
         <v>886512556825</v>
       </c>
-      <c r="M243" t="inlineStr"/>
+      <c r="M243" t="inlineStr">
+        <is>
+          <t>Ready for pickup</t>
+        </is>
+      </c>
       <c r="N243" t="inlineStr"/>
     </row>
     <row r="244">
@@ -14982,7 +14962,11 @@
       <c r="L245" t="n">
         <v>6002843311</v>
       </c>
-      <c r="M245" t="inlineStr"/>
+      <c r="M245" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
       <c r="N245" t="inlineStr"/>
     </row>
     <row r="246">
@@ -15038,7 +15022,11 @@
       <c r="L246" t="n">
         <v>886516894381</v>
       </c>
-      <c r="M246" t="inlineStr"/>
+      <c r="M246" t="inlineStr">
+        <is>
+          <t>Ready for pickup</t>
+        </is>
+      </c>
       <c r="N246" t="inlineStr"/>
     </row>
     <row r="247">
@@ -15094,7 +15082,11 @@
       <c r="L247" t="n">
         <v>30363525</v>
       </c>
-      <c r="M247" t="inlineStr"/>
+      <c r="M247" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
       <c r="N247" t="inlineStr"/>
     </row>
     <row r="248">
@@ -15150,7 +15142,11 @@
       <c r="L248" t="n">
         <v>886520010390</v>
       </c>
-      <c r="M248" t="inlineStr"/>
+      <c r="M248" t="inlineStr">
+        <is>
+          <t>Ready for pickup</t>
+        </is>
+      </c>
       <c r="N248" t="inlineStr"/>
     </row>
     <row r="249">
@@ -15206,7 +15202,11 @@
       <c r="L249" t="n">
         <v>886520916393</v>
       </c>
-      <c r="M249" t="inlineStr"/>
+      <c r="M249" t="inlineStr">
+        <is>
+          <t>Ready for pickup</t>
+        </is>
+      </c>
       <c r="N249" t="inlineStr"/>
     </row>
     <row r="250">
@@ -15262,7 +15262,11 @@
       <c r="L250" t="n">
         <v>886520976940</v>
       </c>
-      <c r="M250" t="inlineStr"/>
+      <c r="M250" t="inlineStr">
+        <is>
+          <t>Ready for pickup</t>
+        </is>
+      </c>
       <c r="N250" t="inlineStr"/>
     </row>
     <row r="251">
@@ -15318,7 +15322,11 @@
       <c r="L251" t="n">
         <v>6002844640</v>
       </c>
-      <c r="M251" t="inlineStr"/>
+      <c r="M251" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
       <c r="N251" t="inlineStr"/>
     </row>
   </sheetData>
